--- a/1. Documentation Phase/Checklist van Todo list/Checklist van ToDo list.xlsx
+++ b/1. Documentation Phase/Checklist van Todo list/Checklist van ToDo list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Checklist van de TO DO list</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Tommy mee bezig</t>
+  </si>
+  <si>
+    <t>Mike en Rudy mee bezig</t>
+  </si>
+  <si>
+    <t>Done door Tommy</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +737,9 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -754,7 +762,9 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -777,7 +787,9 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
